--- a/Sessao_3/dados.xlsx
+++ b/Sessao_3/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C66C7C-0BBC-46D5-B1DA-B3F9826D09C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E499CD4-0118-44FA-A8DB-9C3822A665A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Botao-Osciloscopio" sheetId="2" r:id="rId1"/>
@@ -133,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -235,10 +235,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,26 +250,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2886,7 +2886,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F3:F14" si="3">D4/5</f>
+        <f t="shared" ref="F4:F14" si="3">D4/5</f>
         <v>2E-3</v>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3879,8 +3879,14 @@
         <f>SQRT(G2)/C2</f>
         <v>7.8173595997057158E-2</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="11">
+        <f>H2-0.1689</f>
+        <v>0.19776666666666665</v>
+      </c>
+      <c r="K2" s="11">
+        <f>SQRT(I2^2+0.0447^2)</f>
+        <v>9.0051102775652397E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
@@ -3913,8 +3919,14 @@
         <f t="shared" ref="I3:I65" si="2">SQRT(G3)/C3</f>
         <v>0.12133516482134196</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J65" si="3">H3-0.1689</f>
+        <v>0.71443333333333325</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K65" si="4">SQRT(I3^2+0.0447^2)</f>
+        <v>0.12930704629764853</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -3947,8 +3959,14 @@
         <f t="shared" si="2"/>
         <v>0.33870669054835961</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="J4" s="11">
+        <f t="shared" si="3"/>
+        <v>6.7144333333333339</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="4"/>
+        <v>0.341643545559143</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
@@ -3981,8 +3999,14 @@
         <f t="shared" si="2"/>
         <v>0.72284161474004804</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="J5" s="11">
+        <f t="shared" si="3"/>
+        <v>31.181100000000001</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="4"/>
+        <v>0.72422240368549773</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
@@ -4015,8 +4039,14 @@
         <f t="shared" si="2"/>
         <v>1.1201438399697703</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="J6" s="11">
+        <f t="shared" si="3"/>
+        <v>75.114433333333338</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1210353750984945</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
@@ -4049,8 +4079,14 @@
         <f t="shared" si="2"/>
         <v>1.3258121200900894</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="J7" s="11">
+        <f t="shared" si="3"/>
+        <v>105.29776666666667</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="4"/>
+        <v>1.3265654404430178</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
@@ -4083,8 +4119,14 @@
         <f t="shared" si="2"/>
         <v>1.1030261405182864</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="11">
+        <f t="shared" si="3"/>
+        <v>72.831100000000006</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1039314999884127</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
@@ -4117,8 +4159,14 @@
         <f t="shared" si="2"/>
         <v>0.66101773383506468</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="J9" s="11">
+        <f t="shared" si="3"/>
+        <v>26.047766666666664</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="4"/>
+        <v>0.66252738392042665</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
@@ -4151,8 +4199,14 @@
         <f t="shared" si="2"/>
         <v>0.15986105077709065</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="J10" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3644333333333334</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="4"/>
+        <v>0.16599290814837708</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
@@ -4185,8 +4239,14 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="11">
+        <f t="shared" si="3"/>
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.10953579323673153</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
@@ -4219,8 +4279,14 @@
         <f t="shared" si="2"/>
         <v>6.8718427093627674E-2</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="J12" s="11">
+        <f t="shared" si="3"/>
+        <v>0.11443333333333333</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="4"/>
+        <v>8.1977510466116385E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
@@ -4253,8 +4319,14 @@
         <f t="shared" si="2"/>
         <v>7.0710678118654752E-2</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="J13" s="11">
+        <f t="shared" si="3"/>
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="4"/>
+        <v>8.3654587441454764E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -4287,8 +4359,14 @@
         <f t="shared" si="2"/>
         <v>0.10540925533894599</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="J14" s="12">
+        <f t="shared" si="3"/>
+        <v>0.49776666666666664</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="4"/>
+        <v>0.11449541960755946</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
@@ -4321,8 +4399,14 @@
         <f t="shared" si="2"/>
         <v>0.13123346456686352</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="J15" s="12">
+        <f t="shared" si="3"/>
+        <v>0.86443333333333339</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="4"/>
+        <v>0.13863734064898325</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
@@ -4355,8 +4439,14 @@
         <f t="shared" si="2"/>
         <v>0.43043905233816526</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="J16" s="12">
+        <f t="shared" si="3"/>
+        <v>10.947766666666666</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="4"/>
+        <v>0.43275381890605863</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
@@ -4389,8 +4479,14 @@
         <f t="shared" si="2"/>
         <v>1.2445436468396314</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="12">
+        <f t="shared" si="3"/>
+        <v>46.297766666666668</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="4"/>
+        <v>1.2453461281462632</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
@@ -4423,8 +4519,14 @@
         <f t="shared" si="2"/>
         <v>1.7429221949868496</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="J18" s="12">
+        <f t="shared" si="3"/>
+        <v>90.964433333333346</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="4"/>
+        <v>1.7434953019087198</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
@@ -4457,8 +4559,14 @@
         <f t="shared" si="2"/>
         <v>1.798456128028828</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="J19" s="12">
+        <f t="shared" si="3"/>
+        <v>96.864433333333338</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="4"/>
+        <v>1.7990115437218417</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
@@ -4491,8 +4599,14 @@
         <f t="shared" si="2"/>
         <v>1.2978614889287856</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="J20" s="12">
+        <f t="shared" si="3"/>
+        <v>50.364433333333331</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="4"/>
+        <v>1.2986310232103822</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
@@ -4525,8 +4639,14 @@
         <f t="shared" si="2"/>
         <v>0.58214163988576595</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
+        <v>9.9977666666666654</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="4"/>
+        <v>0.58385527221126365</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
@@ -4559,8 +4679,14 @@
         <f t="shared" si="2"/>
         <v>0.17638342073763938</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="12">
+        <f t="shared" si="3"/>
+        <v>0.7644333333333333</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="4"/>
+        <v>0.1819593391698022</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
@@ -4593,8 +4719,14 @@
         <f t="shared" si="2"/>
         <v>0.1414213562373095</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="J23" s="12">
+        <f t="shared" si="3"/>
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="4"/>
+        <v>0.14831753099347361</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -4627,8 +4759,14 @@
         <f t="shared" si="2"/>
         <v>0.1452966314513558</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="J24" s="4">
+        <f t="shared" si="3"/>
+        <v>0.46443333333333331</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1520171079553585</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -4661,8 +4799,14 @@
         <f t="shared" si="2"/>
         <v>0.15275252316519466</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="J25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.53109999999999991</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.1591584849555101</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -4695,8 +4839,14 @@
         <f t="shared" si="2"/>
         <v>0.23804761428476168</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="J26" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5310999999999999</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.24220808546922348</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -4729,8 +4879,14 @@
         <f t="shared" si="2"/>
         <v>0.84918261352379976</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="J27" s="4">
+        <f t="shared" si="3"/>
+        <v>21.464433333333332</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.8503582780870137</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -4763,8 +4919,14 @@
         <f t="shared" si="2"/>
         <v>1.4621141466307539</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="J28" s="4">
+        <f t="shared" si="3"/>
+        <v>63.964433333333339</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4627972750103746</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -4797,8 +4959,14 @@
         <f t="shared" si="2"/>
         <v>1.8627936010197159</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="J29" s="4">
+        <f t="shared" si="3"/>
+        <v>103.9311</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="4"/>
+        <v>1.8633298392930868</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -4831,8 +4999,14 @@
         <f t="shared" si="2"/>
         <v>1.6319722219858197</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="J30" s="4">
+        <f t="shared" si="3"/>
+        <v>79.731100000000012</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="4"/>
+        <v>1.6325842775591506</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -4865,8 +5039,14 @@
         <f t="shared" si="2"/>
         <v>1.0263202878893769</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="J31" s="4">
+        <f t="shared" si="3"/>
+        <v>31.431100000000001</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0272932508944725</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -4899,8 +5079,14 @@
         <f t="shared" si="2"/>
         <v>0.36666666666666664</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="J32" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8644333333333334</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="4"/>
+        <v>0.36938128599652209</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -4933,8 +5119,14 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="J33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.66443333333333343</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17255685375486474</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
@@ -4967,15 +5159,21 @@
         <f t="shared" si="2"/>
         <v>0.13743685418725535</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="13">
+        <f t="shared" si="3"/>
+        <v>0.39776666666666666</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="shared" si="4"/>
+        <v>0.14452328147703017</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>1</v>
       </c>
       <c r="B35" s="13">
-        <f t="shared" ref="B35:B43" si="3">A35*2.54*0.5</f>
+        <f t="shared" ref="B35:B43" si="5">A35*2.54*0.5</f>
         <v>1.27</v>
       </c>
       <c r="C35" s="13">
@@ -5001,15 +5199,21 @@
         <f t="shared" si="2"/>
         <v>0.1414213562373095</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="J35" s="13">
+        <f t="shared" si="3"/>
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="4"/>
+        <v>0.14831753099347361</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>1</v>
       </c>
       <c r="B36" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="C36" s="13">
@@ -5035,15 +5239,21 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="J36" s="13">
+        <f t="shared" si="3"/>
+        <v>0.66443333333333343</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17255685375486474</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>1</v>
       </c>
       <c r="B37" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="C37" s="13">
@@ -5069,15 +5279,21 @@
         <f t="shared" si="2"/>
         <v>0.77746025264604013</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="J37" s="13">
+        <f t="shared" si="3"/>
+        <v>17.964433333333332</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="4"/>
+        <v>0.77874420347405771</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>1</v>
       </c>
       <c r="B38" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="C38" s="13">
@@ -5103,15 +5319,21 @@
         <f t="shared" si="2"/>
         <v>1.3872434697789875</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="J38" s="13">
+        <f t="shared" si="3"/>
+        <v>57.564433333333334</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="4"/>
+        <v>1.387963448526093</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>1</v>
       </c>
       <c r="B39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="C39" s="13">
@@ -5137,15 +5359,21 @@
         <f t="shared" si="2"/>
         <v>1.8357559750685819</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="J39" s="13">
+        <f t="shared" si="3"/>
+        <v>100.9311</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="4"/>
+        <v>1.8363001089146622</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>1</v>
       </c>
       <c r="B40" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="C40" s="13">
@@ -5171,15 +5399,21 @@
         <f t="shared" si="2"/>
         <v>1.6673332000533068</v>
       </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="J40" s="13">
+        <f t="shared" si="3"/>
+        <v>83.231100000000012</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="4"/>
+        <v>1.6679322798003522</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>1</v>
       </c>
       <c r="B41" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="C41" s="13">
@@ -5205,15 +5439,21 @@
         <f t="shared" si="2"/>
         <v>1.1343133018115703</v>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="J41" s="13">
+        <f t="shared" si="3"/>
+        <v>38.431100000000001</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="4"/>
+        <v>1.1351937088738058</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>1</v>
       </c>
       <c r="B42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="C42" s="13">
@@ -5239,15 +5479,21 @@
         <f t="shared" si="2"/>
         <v>0.56470247820324715</v>
       </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="J42" s="13">
+        <f t="shared" si="3"/>
+        <v>9.3977666666666657</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="4"/>
+        <v>0.56646886841987076</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>1</v>
       </c>
       <c r="B43" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="C43" s="13">
@@ -5273,8 +5519,14 @@
         <f t="shared" si="2"/>
         <v>0.1885618083164127</v>
       </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="J43" s="13">
+        <f t="shared" si="3"/>
+        <v>0.8977666666666666</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="4"/>
+        <v>0.19378763003751184</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
@@ -5307,15 +5559,21 @@
         <f t="shared" si="2"/>
         <v>0.11547005383792515</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
+      <c r="J44" s="14">
+        <f t="shared" si="3"/>
+        <v>0.23110000000000003</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="4"/>
+        <v>0.12382012491244439</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>2</v>
       </c>
       <c r="B45" s="14">
-        <f t="shared" ref="B45:B65" si="4">A45*2.54*0.5</f>
+        <f t="shared" ref="B45:B65" si="6">A45*2.54*0.5</f>
         <v>2.54</v>
       </c>
       <c r="C45" s="14">
@@ -5341,15 +5599,21 @@
         <f t="shared" si="2"/>
         <v>0.11547005383792515</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
+      <c r="J45" s="14">
+        <f t="shared" si="3"/>
+        <v>0.23110000000000003</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="4"/>
+        <v>0.12382012491244439</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>2</v>
       </c>
       <c r="B46" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="C46" s="14">
@@ -5375,15 +5639,21 @@
         <f t="shared" si="2"/>
         <v>0.13743685418725535</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
+      <c r="J46" s="14">
+        <f t="shared" si="3"/>
+        <v>0.39776666666666666</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="4"/>
+        <v>0.14452328147703017</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>2</v>
       </c>
       <c r="B47" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="C47" s="14">
@@ -5409,15 +5679,21 @@
         <f t="shared" si="2"/>
         <v>0.33829638550307395</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
+      <c r="J47" s="14">
+        <f t="shared" si="3"/>
+        <v>3.2644333333333333</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="4"/>
+        <v>0.34123677182338424</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>2</v>
       </c>
       <c r="B48" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="C48" s="14">
@@ -5443,15 +5719,21 @@
         <f t="shared" si="2"/>
         <v>1.0311805532172014</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="J48" s="14">
+        <f t="shared" si="3"/>
+        <v>31.731099999999998</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0321489346665691</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>2</v>
       </c>
       <c r="B49" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="C49" s="14">
@@ -5477,15 +5759,21 @@
         <f t="shared" si="2"/>
         <v>1.6268579122549907</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="J49" s="14">
+        <f t="shared" si="3"/>
+        <v>79.231100000000012</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="4"/>
+        <v>1.6274718912063173</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>2</v>
       </c>
       <c r="B50" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="C50" s="14">
@@ -5508,18 +5796,24 @@
         <v>102.36666666666666</v>
       </c>
       <c r="I50" s="14">
-        <f t="shared" si="2"/>
+        <f>SQRT(G50)/C50</f>
         <v>1.8472201336663214</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="J50" s="14">
+        <f t="shared" si="3"/>
+        <v>102.19776666666667</v>
+      </c>
+      <c r="K50" s="14">
+        <f t="shared" si="4"/>
+        <v>1.8477608915176829</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>2</v>
       </c>
       <c r="B51" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="C51" s="14">
@@ -5545,15 +5839,21 @@
         <f t="shared" si="2"/>
         <v>1.4712050993809274</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
+      <c r="J51" s="14">
+        <f t="shared" si="3"/>
+        <v>64.764433333333344</v>
+      </c>
+      <c r="K51" s="14">
+        <f t="shared" si="4"/>
+        <v>1.4718840084885916</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>2</v>
       </c>
       <c r="B52" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="C52" s="14">
@@ -5579,15 +5879,21 @@
         <f t="shared" si="2"/>
         <v>0.89006866152124597</v>
       </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="J52" s="14">
+        <f t="shared" si="3"/>
+        <v>23.597766666666665</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="4"/>
+        <v>0.89119039055760829</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>2</v>
       </c>
       <c r="B53" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="C53" s="14">
@@ -5613,8 +5919,14 @@
         <f t="shared" si="2"/>
         <v>0.26457513110645908</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="J53" s="14">
+        <f t="shared" si="3"/>
+        <v>1.9311</v>
+      </c>
+      <c r="K53" s="14">
+        <f t="shared" si="4"/>
+        <v>0.26832459820150667</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
@@ -5647,15 +5959,21 @@
         <f t="shared" si="2"/>
         <v>0.11547005383792515</v>
       </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
+      <c r="J54" s="15">
+        <f t="shared" si="3"/>
+        <v>0.23110000000000003</v>
+      </c>
+      <c r="K54" s="15">
+        <f t="shared" si="4"/>
+        <v>0.12382012491244439</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>3</v>
       </c>
       <c r="B55" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C55" s="15">
@@ -5681,15 +5999,21 @@
         <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
+      <c r="J55" s="15">
+        <f t="shared" si="3"/>
+        <v>0.36443333333333333</v>
+      </c>
+      <c r="K55" s="15">
+        <f t="shared" si="4"/>
+        <v>0.14062669653297619</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>3</v>
       </c>
       <c r="B56" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C56" s="15">
@@ -5715,15 +6039,21 @@
         <f t="shared" si="2"/>
         <v>0.1452966314513558</v>
       </c>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
+      <c r="J56" s="15">
+        <f t="shared" si="3"/>
+        <v>0.46443333333333331</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="4"/>
+        <v>0.1520171079553585</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>3</v>
       </c>
       <c r="B57" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C57" s="15">
@@ -5749,15 +6079,21 @@
         <f t="shared" si="2"/>
         <v>0.64721626129825327</v>
       </c>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
+      <c r="J57" s="15">
+        <f t="shared" si="3"/>
+        <v>12.397766666666666</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="4"/>
+        <v>0.64875802799571491</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>3</v>
       </c>
       <c r="B58" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C58" s="15">
@@ -5776,22 +6112,28 @@
         <v>1589</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" ref="H58:H65" si="5">G58/C58</f>
+        <f t="shared" ref="H58:H65" si="7">G58/C58</f>
         <v>52.966666666666669</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="2"/>
         <v>1.32874209519965</v>
       </c>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
+      <c r="J58" s="15">
+        <f t="shared" si="3"/>
+        <v>52.797766666666668</v>
+      </c>
+      <c r="K58" s="15">
+        <f t="shared" si="4"/>
+        <v>1.3294937553653856</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>3</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C59" s="15">
@@ -5810,22 +6152,28 @@
         <v>3043</v>
       </c>
       <c r="H59" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>101.43333333333334</v>
       </c>
       <c r="I59" s="15">
         <f t="shared" si="2"/>
         <v>1.8387797886400401</v>
       </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
+      <c r="J59" s="15">
+        <f t="shared" si="3"/>
+        <v>101.26443333333334</v>
+      </c>
+      <c r="K59" s="15">
+        <f t="shared" si="4"/>
+        <v>1.8393230279402013</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>3</v>
       </c>
       <c r="B60" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C60" s="15">
@@ -5844,22 +6192,28 @@
         <v>2991</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99.7</v>
       </c>
       <c r="I60" s="15">
         <f t="shared" si="2"/>
         <v>1.823001188516709</v>
       </c>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
+      <c r="J60" s="15">
+        <f t="shared" si="3"/>
+        <v>99.531100000000009</v>
+      </c>
+      <c r="K60" s="15">
+        <f t="shared" si="4"/>
+        <v>1.8235491283026442</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>3</v>
       </c>
       <c r="B61" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C61" s="15">
@@ -5878,22 +6232,28 @@
         <v>1461</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48.7</v>
       </c>
       <c r="I61" s="15">
         <f t="shared" si="2"/>
         <v>1.2741009902410927</v>
       </c>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
+      <c r="J61" s="15">
+        <f t="shared" si="3"/>
+        <v>48.531100000000002</v>
+      </c>
+      <c r="K61" s="15">
+        <f t="shared" si="4"/>
+        <v>1.27488486669712</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>3</v>
       </c>
       <c r="B62" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C62" s="15">
@@ -5912,22 +6272,28 @@
         <v>326</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.866666666666667</v>
       </c>
       <c r="I62" s="15">
         <f t="shared" si="2"/>
         <v>0.60184900284225962</v>
       </c>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
+      <c r="J62" s="15">
+        <f t="shared" si="3"/>
+        <v>10.697766666666666</v>
+      </c>
+      <c r="K62" s="15">
+        <f t="shared" si="4"/>
+        <v>0.6035066795174866</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>3</v>
       </c>
       <c r="B63" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C63" s="15">
@@ -5946,22 +6312,28 @@
         <v>31</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="I63" s="15">
         <f t="shared" si="2"/>
         <v>0.18559214542766739</v>
       </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
+      <c r="J63" s="15">
+        <f t="shared" si="3"/>
+        <v>0.86443333333333339</v>
+      </c>
+      <c r="K63" s="15">
+        <f t="shared" si="4"/>
+        <v>0.19089927827114603</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>3</v>
       </c>
       <c r="B64" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C64" s="15">
@@ -5980,22 +6352,28 @@
         <v>16</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="I64" s="15">
         <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
+      <c r="J64" s="15">
+        <f t="shared" si="3"/>
+        <v>0.36443333333333333</v>
+      </c>
+      <c r="K64" s="15">
+        <f t="shared" si="4"/>
+        <v>0.14062669653297619</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>3</v>
       </c>
       <c r="B65" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.81</v>
       </c>
       <c r="C65" s="15">
@@ -6014,15 +6392,21 @@
         <v>10</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I65" s="15">
         <f t="shared" si="2"/>
         <v>0.10540925533894599</v>
       </c>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
+      <c r="J65" s="15">
+        <f t="shared" si="3"/>
+        <v>0.16443333333333332</v>
+      </c>
+      <c r="K65" s="15">
+        <f t="shared" si="4"/>
+        <v>0.11449541960755946</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sessao_3/dados.xlsx
+++ b/Sessao_3/dados.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E499CD4-0118-44FA-A8DB-9C3822A665A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7736D4-BD30-418E-9B99-B8D13093F30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Botao-Osciloscopio" sheetId="2" r:id="rId1"/>
     <sheet name="Janela" sheetId="3" r:id="rId2"/>
     <sheet name="Fortuitas" sheetId="1" r:id="rId3"/>
     <sheet name="Plano equidistante" sheetId="4" r:id="rId4"/>
+    <sheet name="theta distancia" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>t [s]</t>
   </si>
@@ -127,13 +128,35 @@
   <si>
     <t>x [0.5in]</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>etheta</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>esigma</t>
+  </si>
+  <si>
+    <t>FWHM</t>
+  </si>
+  <si>
+    <t>eFWHM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -227,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,6 +295,7 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3794,7 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDBDC3D-7AF9-444F-97BB-C9CA7E99B6D9}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -6411,4 +6435,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D5B7C-35A3-44CB-BBDB-5914BB72AC20}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-1.5</v>
+      </c>
+      <c r="B2">
+        <v>-25.562000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D2">
+        <v>5.88</v>
+      </c>
+      <c r="E2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F2" s="16">
+        <f>2.35*D2</f>
+        <v>13.818</v>
+      </c>
+      <c r="G2" s="16">
+        <f>2.35*E2</f>
+        <v>0.38070000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>-17.420000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.153</v>
+      </c>
+      <c r="D3">
+        <v>5.835</v>
+      </c>
+      <c r="E3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" ref="F3:F7" si="0">2.35*D3</f>
+        <v>13.712250000000001</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G7" si="1">2.35*E3</f>
+        <v>0.2397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-0.5</v>
+      </c>
+      <c r="B4">
+        <v>-9.266</v>
+      </c>
+      <c r="C4">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D4">
+        <v>5.7350000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.124</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>13.477250000000002</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="1"/>
+        <v>0.29139999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>6.633</v>
+      </c>
+      <c r="C5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="D5">
+        <v>5.88</v>
+      </c>
+      <c r="E5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="0"/>
+        <v>13.818</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="1"/>
+        <v>0.38775000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>14.422000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.193</v>
+      </c>
+      <c r="D6">
+        <v>5.7709999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>13.56185</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.31725000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <v>22.381</v>
+      </c>
+      <c r="C7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D7">
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="E7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="0"/>
+        <v>13.564200000000001</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.23265000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sessao_3/dados.xlsx
+++ b/Sessao_3/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7736D4-BD30-418E-9B99-B8D13093F30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B567B708-40D8-475E-84EF-A7A2F620FD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Botao-Osciloscopio" sheetId="2" r:id="rId1"/>
@@ -156,7 +156,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -250,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,7 +295,9 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3816,21 +3818,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDBDC3D-7AF9-444F-97BB-C9CA7E99B6D9}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" customWidth="1"/>
@@ -6432,6 +6434,89 @@
         <v>0.11449541960755946</v>
       </c>
     </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="18"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="18"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="G78" s="17"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="18"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="18"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="G80" s="17"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="18"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="18"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="18"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6441,7 +6526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D5B7C-35A3-44CB-BBDB-5914BB72AC20}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/Sessao_3/dados.xlsx
+++ b/Sessao_3/dados.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Ano_3\Semestre_1\P1\LFEA_II\LFEA_II\Sessao_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B567B708-40D8-475E-84EF-A7A2F620FD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9875108F-A803-4E2F-9728-E0B980B2D989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Botao-Osciloscopio" sheetId="2" r:id="rId1"/>
     <sheet name="Janela" sheetId="3" r:id="rId2"/>
     <sheet name="Fortuitas" sheetId="1" r:id="rId3"/>
     <sheet name="Plano equidistante" sheetId="4" r:id="rId4"/>
-    <sheet name="theta distancia" sheetId="5" r:id="rId5"/>
+    <sheet name="xx" sheetId="6" r:id="rId5"/>
+    <sheet name="theta distancia" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>t [s]</t>
   </si>
@@ -250,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,7 +298,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3820,8 +3820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDBDC3D-7AF9-444F-97BB-C9CA7E99B6D9}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6435,84 +6435,72 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="G75" s="17"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="G81" s="17"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
@@ -6523,6 +6511,266 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CE355-5D54-427D-931A-1CCC0CDF8F09}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-3</v>
+      </c>
+      <c r="B2">
+        <v>-3.81</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>18569</v>
+      </c>
+      <c r="F2">
+        <v>18488</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="I2">
+        <v>6.8718427093627674E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.11443333333333333</v>
+      </c>
+      <c r="K2">
+        <v>8.1977510466116385E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>-2.54</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>9775</v>
+      </c>
+      <c r="F3">
+        <v>9356</v>
+      </c>
+      <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="I3">
+        <v>0.17638342073763938</v>
+      </c>
+      <c r="J3">
+        <v>0.7644333333333333</v>
+      </c>
+      <c r="K3">
+        <v>0.1819593391698022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>-1.27</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>9682</v>
+      </c>
+      <c r="F4">
+        <v>9868</v>
+      </c>
+      <c r="G4">
+        <v>948</v>
+      </c>
+      <c r="H4">
+        <v>31.6</v>
+      </c>
+      <c r="I4">
+        <v>1.0263202878893769</v>
+      </c>
+      <c r="J4">
+        <v>31.431100000000001</v>
+      </c>
+      <c r="K4">
+        <v>1.0272932508944725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1.27</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>9670</v>
+      </c>
+      <c r="F5">
+        <v>9892</v>
+      </c>
+      <c r="G5">
+        <v>1732</v>
+      </c>
+      <c r="H5">
+        <v>57.733333333333334</v>
+      </c>
+      <c r="I5">
+        <v>1.3872434697789875</v>
+      </c>
+      <c r="J5">
+        <v>57.564433333333334</v>
+      </c>
+      <c r="K5">
+        <v>1.387963448526093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2.54</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>9511</v>
+      </c>
+      <c r="F6">
+        <v>9904</v>
+      </c>
+      <c r="G6">
+        <v>103</v>
+      </c>
+      <c r="H6">
+        <v>3.4333333333333331</v>
+      </c>
+      <c r="I6">
+        <v>0.33829638550307395</v>
+      </c>
+      <c r="J6">
+        <v>3.2644333333333333</v>
+      </c>
+      <c r="K6">
+        <v>0.34123677182338424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3.81</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>9431</v>
+      </c>
+      <c r="F7">
+        <v>9498</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="I7">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J7">
+        <v>0.36443333333333333</v>
+      </c>
+      <c r="K7">
+        <v>0.14062669653297619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D5B7C-35A3-44CB-BBDB-5914BB72AC20}">
   <dimension ref="A1:G7"/>
   <sheetViews>
